--- a/WebApplicationTestingProject/src/com/OrangeHRMApplicationValid_InvalidDataExcelDetails/OrangeHRMApplicationValid_InvalidDataExcelFile.xlsx
+++ b/WebApplicationTestingProject/src/com/OrangeHRMApplicationValid_InvalidDataExcelDetails/OrangeHRMApplicationValid_InvalidDataExcelFile.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\OHRMAutomation\WebApplicationTestingProject\src\com\OrangeHRMApplicationValid_InvalidDataExcelDetails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C51CBB0-5B36-476A-8C55-6766BE040BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAB9D49-7B48-4B6E-A2E9-5412D7F86377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="2770" windowWidth="14400" windowHeight="7310" xr2:uid="{CE2B7C12-16B9-43CC-BA81-712F2AD15F1F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CE2B7C12-16B9-43CC-BA81-712F2AD15F1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,15 +35,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Result</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+  <si>
+    <t>Expected_LoginpanelText</t>
+  </si>
+  <si>
+    <t>Actual_LoginPanelText</t>
+  </si>
+  <si>
+    <t>LoginPage_TestResult</t>
+  </si>
+  <si>
+    <t>LOGIN Panel</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Livetech@123</t>
+  </si>
+  <si>
+    <t>sailu@123</t>
   </si>
 </sst>
 </file>
@@ -66,15 +88,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,14 +110,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -405,32 +449,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CA5B42-7E98-4B0D-AB2B-4AA9C686C321}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.81640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.08984375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="1"/>
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
@@ -447,4 +500,61 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E248EB07-6559-496F-A37F-304368DCC980}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.08984375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7265625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{BEC8C2D0-40ED-45A1-BE43-1DAFE6DEFAE3}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{2B4104C8-CEE8-44D1-9CE0-5A3BAFA81A59}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{A530EC74-0F44-4F96-A534-FE64381AFD3D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>